--- a/Gestion/Sprint Tracker.xlsx
+++ b/Gestion/Sprint Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BB206E-BAFD-49D1-A820-7E4708EC8B46}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFF211A-4FF5-4D79-9D1F-30791B6C3524}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <definedName name="vertex42_copyright" hidden="1">"© 2006-2018 Vertex42 LLC"</definedName>
     <definedName name="vertex42_id" hidden="1">"gantt-chart_L2.xlsx"</definedName>
     <definedName name="vertex42_title" hidden="1">"Gantt Chart Template"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Excel Sprint Project Tracker'!$C$3:$AN$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Excel Sprint Project Tracker'!$C$3:$AN$28</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Project Summary</t>
   </si>
@@ -43,12 +43,6 @@
   </si>
   <si>
     <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Sprint 4</t>
   </si>
   <si>
     <t>Sprint</t>
@@ -97,9 +91,6 @@
     <t>Green</t>
   </si>
   <si>
-    <t>Low</t>
-  </si>
-  <si>
     <t>Medium</t>
   </si>
   <si>
@@ -124,10 +115,10 @@
     <t>Creation Nouvelle entrainement</t>
   </si>
   <si>
-    <t>Acceuil</t>
+    <t>statistiques</t>
   </si>
   <si>
-    <t>statistiques</t>
+    <t>Profile</t>
   </si>
 </sst>
 </file>
@@ -959,7 +950,7 @@
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -991,15 +982,6 @@
     <xf numFmtId="14" fontId="35" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="28" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1038,9 +1020,6 @@
     <xf numFmtId="1" fontId="38" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="165" fontId="40" fillId="20" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1165,6 +1144,9 @@
     <xf numFmtId="0" fontId="58" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="41" fillId="22" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="50" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -1172,9 +1154,6 @@
     <xf numFmtId="15" fontId="41" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="41" fillId="22" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="166" fontId="41" fillId="22" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1723,10 +1702,10 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BY54"/>
+  <dimension ref="B1:BY51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1792,27 +1771,27 @@
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
-      <c r="C3" s="75" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
+      <c r="C3" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="62" t="s">
-        <v>25</v>
+      <c r="K3" s="57"/>
+      <c r="L3" s="58" t="s">
+        <v>22</v>
       </c>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
-      <c r="O3" s="47"/>
+      <c r="O3" s="43"/>
       <c r="P3" s="10"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="62" t="s">
-        <v>17</v>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="58" t="s">
+        <v>15</v>
       </c>
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
@@ -1828,31 +1807,31 @@
       <c r="AD3" s="9"/>
       <c r="AE3" s="9"/>
       <c r="AF3" s="9"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="60"/>
-      <c r="AK3" s="60"/>
-      <c r="AL3" s="60"/>
-      <c r="AM3" s="60"/>
-      <c r="AN3" s="60"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="56"/>
       <c r="AO3" s="5"/>
     </row>
     <row r="4" spans="2:41" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
@@ -1882,297 +1861,297 @@
     </row>
     <row r="5" spans="2:41" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="77">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="71">
         <f>CHOOSE(WEEKDAY(D6+(H6-1)*7),5,4,3,2,1,0,6)+D6+(H6-1)*7</f>
         <v>43392</v>
       </c>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77">
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71">
         <f>K5+7</f>
         <v>43399</v>
       </c>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77">
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="71">
         <f>P5+7</f>
         <v>43406</v>
       </c>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="77"/>
-      <c r="Y5" s="77"/>
-      <c r="Z5" s="77">
+      <c r="V5" s="71"/>
+      <c r="W5" s="71"/>
+      <c r="X5" s="71"/>
+      <c r="Y5" s="71"/>
+      <c r="Z5" s="71">
         <f>U5+7</f>
         <v>43413</v>
       </c>
-      <c r="AA5" s="77"/>
-      <c r="AB5" s="77"/>
-      <c r="AC5" s="77"/>
-      <c r="AD5" s="77"/>
-      <c r="AE5" s="77">
+      <c r="AA5" s="71"/>
+      <c r="AB5" s="71"/>
+      <c r="AC5" s="71"/>
+      <c r="AD5" s="71"/>
+      <c r="AE5" s="71">
         <f>Z5+7</f>
         <v>43420</v>
       </c>
-      <c r="AF5" s="77"/>
-      <c r="AG5" s="77"/>
-      <c r="AH5" s="77"/>
-      <c r="AI5" s="77"/>
-      <c r="AJ5" s="77">
+      <c r="AF5" s="71"/>
+      <c r="AG5" s="71"/>
+      <c r="AH5" s="71"/>
+      <c r="AI5" s="71"/>
+      <c r="AJ5" s="71">
         <f>AE5+7</f>
         <v>43427</v>
       </c>
-      <c r="AK5" s="77"/>
-      <c r="AL5" s="77"/>
-      <c r="AM5" s="77"/>
-      <c r="AN5" s="77"/>
+      <c r="AK5" s="71"/>
+      <c r="AL5" s="71"/>
+      <c r="AM5" s="71"/>
+      <c r="AN5" s="71"/>
       <c r="AO5" s="5"/>
     </row>
     <row r="6" spans="2:41" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="76">
+      <c r="D6" s="73">
         <v>43389</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="79"/>
-      <c r="H6" s="51">
+      <c r="E6" s="73"/>
+      <c r="F6" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="75"/>
+      <c r="H6" s="47">
         <v>1</v>
       </c>
-      <c r="I6" s="64"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="77"/>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="77"/>
-      <c r="AB6" s="77"/>
-      <c r="AC6" s="77"/>
-      <c r="AD6" s="77"/>
-      <c r="AE6" s="77"/>
-      <c r="AF6" s="77"/>
-      <c r="AG6" s="77"/>
-      <c r="AH6" s="77"/>
-      <c r="AI6" s="77"/>
-      <c r="AJ6" s="77"/>
-      <c r="AK6" s="77"/>
-      <c r="AL6" s="77"/>
-      <c r="AM6" s="77"/>
-      <c r="AN6" s="77"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="71"/>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="71"/>
+      <c r="AF6" s="71"/>
+      <c r="AG6" s="71"/>
+      <c r="AH6" s="71"/>
+      <c r="AI6" s="71"/>
+      <c r="AJ6" s="71"/>
+      <c r="AK6" s="71"/>
+      <c r="AL6" s="71"/>
+      <c r="AM6" s="71"/>
+      <c r="AN6" s="71"/>
       <c r="AO6" s="5"/>
     </row>
     <row r="7" spans="2:41" ht="6.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77"/>
-      <c r="S7" s="77"/>
-      <c r="T7" s="77"/>
-      <c r="U7" s="77"/>
-      <c r="V7" s="77"/>
-      <c r="W7" s="77"/>
-      <c r="X7" s="77"/>
-      <c r="Y7" s="77"/>
-      <c r="Z7" s="77"/>
-      <c r="AA7" s="77"/>
-      <c r="AB7" s="77"/>
-      <c r="AC7" s="77"/>
-      <c r="AD7" s="77"/>
-      <c r="AE7" s="77"/>
-      <c r="AF7" s="77"/>
-      <c r="AG7" s="77"/>
-      <c r="AH7" s="77"/>
-      <c r="AI7" s="77"/>
-      <c r="AJ7" s="77"/>
-      <c r="AK7" s="77"/>
-      <c r="AL7" s="77"/>
-      <c r="AM7" s="77"/>
-      <c r="AN7" s="77"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="71"/>
+      <c r="X7" s="71"/>
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="71"/>
+      <c r="AC7" s="71"/>
+      <c r="AD7" s="71"/>
+      <c r="AE7" s="71"/>
+      <c r="AF7" s="71"/>
+      <c r="AG7" s="71"/>
+      <c r="AH7" s="71"/>
+      <c r="AI7" s="71"/>
+      <c r="AJ7" s="71"/>
+      <c r="AK7" s="71"/>
+      <c r="AL7" s="71"/>
+      <c r="AM7" s="71"/>
+      <c r="AN7" s="71"/>
       <c r="AO7" s="5"/>
     </row>
     <row r="8" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="F8" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="G8" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="H8" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="65" t="s">
+      <c r="I8" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="37">
+      <c r="J8" s="26"/>
+      <c r="K8" s="33">
         <f t="shared" ref="K8:N8" si="0">L8-1</f>
         <v>43388</v>
       </c>
-      <c r="L8" s="35">
+      <c r="L8" s="31">
         <f t="shared" si="0"/>
         <v>43389</v>
       </c>
-      <c r="M8" s="35">
+      <c r="M8" s="31">
         <f t="shared" si="0"/>
         <v>43390</v>
       </c>
-      <c r="N8" s="35">
+      <c r="N8" s="31">
         <f t="shared" si="0"/>
         <v>43391</v>
       </c>
-      <c r="O8" s="35">
+      <c r="O8" s="31">
         <f>K5</f>
         <v>43392</v>
       </c>
-      <c r="P8" s="35">
+      <c r="P8" s="31">
         <f>WORKDAY(O8,1)</f>
         <v>43395</v>
       </c>
-      <c r="Q8" s="35">
+      <c r="Q8" s="31">
         <f t="shared" ref="Q8:AN8" si="1">WORKDAY(P8,1)</f>
         <v>43396</v>
       </c>
-      <c r="R8" s="35">
+      <c r="R8" s="31">
         <f t="shared" si="1"/>
         <v>43397</v>
       </c>
-      <c r="S8" s="35">
+      <c r="S8" s="31">
         <f t="shared" si="1"/>
         <v>43398</v>
       </c>
-      <c r="T8" s="35">
+      <c r="T8" s="31">
         <f t="shared" si="1"/>
         <v>43399</v>
       </c>
-      <c r="U8" s="35">
+      <c r="U8" s="31">
         <f t="shared" si="1"/>
         <v>43402</v>
       </c>
-      <c r="V8" s="35">
+      <c r="V8" s="31">
         <f t="shared" si="1"/>
         <v>43403</v>
       </c>
-      <c r="W8" s="35">
+      <c r="W8" s="31">
         <f t="shared" si="1"/>
         <v>43404</v>
       </c>
-      <c r="X8" s="35">
+      <c r="X8" s="31">
         <f t="shared" si="1"/>
         <v>43405</v>
       </c>
-      <c r="Y8" s="35">
+      <c r="Y8" s="31">
         <f t="shared" si="1"/>
         <v>43406</v>
       </c>
-      <c r="Z8" s="35">
+      <c r="Z8" s="31">
         <f t="shared" si="1"/>
         <v>43409</v>
       </c>
-      <c r="AA8" s="35">
+      <c r="AA8" s="31">
         <f t="shared" si="1"/>
         <v>43410</v>
       </c>
-      <c r="AB8" s="35">
+      <c r="AB8" s="31">
         <f t="shared" si="1"/>
         <v>43411</v>
       </c>
-      <c r="AC8" s="35">
+      <c r="AC8" s="31">
         <f t="shared" si="1"/>
         <v>43412</v>
       </c>
-      <c r="AD8" s="35">
+      <c r="AD8" s="31">
         <f t="shared" si="1"/>
         <v>43413</v>
       </c>
-      <c r="AE8" s="35">
+      <c r="AE8" s="31">
         <f t="shared" si="1"/>
         <v>43416</v>
       </c>
-      <c r="AF8" s="35">
+      <c r="AF8" s="31">
         <f t="shared" si="1"/>
         <v>43417</v>
       </c>
-      <c r="AG8" s="35">
+      <c r="AG8" s="31">
         <f t="shared" si="1"/>
         <v>43418</v>
       </c>
-      <c r="AH8" s="35">
+      <c r="AH8" s="31">
         <f t="shared" si="1"/>
         <v>43419</v>
       </c>
-      <c r="AI8" s="35">
+      <c r="AI8" s="31">
         <f t="shared" si="1"/>
         <v>43420</v>
       </c>
-      <c r="AJ8" s="35">
+      <c r="AJ8" s="31">
         <f t="shared" si="1"/>
         <v>43423</v>
       </c>
-      <c r="AK8" s="35">
+      <c r="AK8" s="31">
         <f t="shared" si="1"/>
         <v>43424</v>
       </c>
-      <c r="AL8" s="35">
+      <c r="AL8" s="31">
         <f t="shared" si="1"/>
         <v>43425</v>
       </c>
-      <c r="AM8" s="35">
+      <c r="AM8" s="31">
         <f t="shared" si="1"/>
         <v>43426</v>
       </c>
-      <c r="AN8" s="35">
+      <c r="AN8" s="31">
         <f t="shared" si="1"/>
         <v>43427</v>
       </c>
@@ -2180,131 +2159,131 @@
     </row>
     <row r="9" spans="2:41" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="33" t="str">
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="29" t="str">
         <f>CHOOSE(WEEKDAY(K8,1),"S","M","T","W","T","F","S")</f>
         <v>M</v>
       </c>
-      <c r="L9" s="34" t="str">
+      <c r="L9" s="30" t="str">
         <f t="shared" ref="L9:AD9" si="2">CHOOSE(WEEKDAY(L8,1),"S","M","T","W","T","F","S")</f>
         <v>T</v>
       </c>
-      <c r="M9" s="34" t="str">
+      <c r="M9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>W</v>
       </c>
-      <c r="N9" s="34" t="str">
+      <c r="N9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="O9" s="34" t="str">
+      <c r="O9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="P9" s="34" t="str">
+      <c r="P9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="Q9" s="34" t="str">
+      <c r="Q9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="R9" s="34" t="str">
+      <c r="R9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>W</v>
       </c>
-      <c r="S9" s="34" t="str">
+      <c r="S9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="T9" s="34" t="str">
+      <c r="T9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="U9" s="34" t="str">
+      <c r="U9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="V9" s="34" t="str">
+      <c r="V9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="W9" s="34" t="str">
+      <c r="W9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>W</v>
       </c>
-      <c r="X9" s="34" t="str">
+      <c r="X9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="Y9" s="34" t="str">
+      <c r="Y9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="Z9" s="34" t="str">
+      <c r="Z9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="AA9" s="34" t="str">
+      <c r="AA9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="AB9" s="34" t="str">
+      <c r="AB9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>W</v>
       </c>
-      <c r="AC9" s="34" t="str">
+      <c r="AC9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="AD9" s="34" t="str">
+      <c r="AD9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="AE9" s="34" t="str">
+      <c r="AE9" s="30" t="str">
         <f t="shared" ref="AE9" si="3">CHOOSE(WEEKDAY(AE8,1),"S","M","T","W","T","F","S")</f>
         <v>M</v>
       </c>
-      <c r="AF9" s="34" t="str">
+      <c r="AF9" s="30" t="str">
         <f t="shared" ref="AF9" si="4">CHOOSE(WEEKDAY(AF8,1),"S","M","T","W","T","F","S")</f>
         <v>T</v>
       </c>
-      <c r="AG9" s="34" t="str">
+      <c r="AG9" s="30" t="str">
         <f t="shared" ref="AG9" si="5">CHOOSE(WEEKDAY(AG8,1),"S","M","T","W","T","F","S")</f>
         <v>W</v>
       </c>
-      <c r="AH9" s="34" t="str">
+      <c r="AH9" s="30" t="str">
         <f t="shared" ref="AH9" si="6">CHOOSE(WEEKDAY(AH8,1),"S","M","T","W","T","F","S")</f>
         <v>T</v>
       </c>
-      <c r="AI9" s="34" t="str">
+      <c r="AI9" s="30" t="str">
         <f t="shared" ref="AI9" si="7">CHOOSE(WEEKDAY(AI8,1),"S","M","T","W","T","F","S")</f>
         <v>F</v>
       </c>
-      <c r="AJ9" s="34" t="str">
+      <c r="AJ9" s="30" t="str">
         <f t="shared" ref="AJ9" si="8">CHOOSE(WEEKDAY(AJ8,1),"S","M","T","W","T","F","S")</f>
         <v>M</v>
       </c>
-      <c r="AK9" s="34" t="str">
+      <c r="AK9" s="30" t="str">
         <f t="shared" ref="AK9" si="9">CHOOSE(WEEKDAY(AK8,1),"S","M","T","W","T","F","S")</f>
         <v>T</v>
       </c>
-      <c r="AL9" s="34" t="str">
+      <c r="AL9" s="30" t="str">
         <f t="shared" ref="AL9" si="10">CHOOSE(WEEKDAY(AL8,1),"S","M","T","W","T","F","S")</f>
         <v>W</v>
       </c>
-      <c r="AM9" s="34" t="str">
+      <c r="AM9" s="30" t="str">
         <f t="shared" ref="AM9" si="11">CHOOSE(WEEKDAY(AM8,1),"S","M","T","W","T","F","S")</f>
         <v>T</v>
       </c>
-      <c r="AN9" s="34" t="str">
+      <c r="AN9" s="30" t="str">
         <f t="shared" ref="AN9" si="12">CHOOSE(WEEKDAY(AN8,1),"S","M","T","W","T","F","S")</f>
         <v>F</v>
       </c>
@@ -2312,120 +2291,120 @@
     </row>
     <row r="10" spans="2:41" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45">
-        <f>IF(MIN(E11:E30)&gt;0,MIN(E11:E30),"")</f>
-        <v>43313</v>
-      </c>
-      <c r="F10" s="45">
-        <f>IF(MAX(F11:F30)&gt;0,MAX(F11:F30),"")</f>
+      <c r="D10" s="40"/>
+      <c r="E10" s="41">
+        <f>IF(MIN(E11:E28)&gt;0,MIN(E11:E28),"")</f>
+        <v>43391</v>
+      </c>
+      <c r="F10" s="41">
+        <f>IF(MAX(F11:F28)&gt;0,MAX(F11:F28),"")</f>
         <v>43412</v>
       </c>
-      <c r="G10" s="56" t="str">
+      <c r="G10" s="52" t="str">
         <f>IF(OR(E10="",F10=""),"",NETWORKDAYS(E10,F10)&amp; " day(s)")</f>
-        <v>72 day(s)</v>
-      </c>
-      <c r="H10" s="52"/>
-      <c r="I10" s="57">
-        <f>AVERAGE(I12:I29)</f>
-        <v>0.50833333333333341</v>
-      </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="41"/>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="41"/>
-      <c r="AH10" s="41"/>
-      <c r="AI10" s="41"/>
-      <c r="AJ10" s="41"/>
-      <c r="AK10" s="41"/>
-      <c r="AL10" s="41"/>
-      <c r="AM10" s="41"/>
-      <c r="AN10" s="41"/>
+        <v>16 day(s)</v>
+      </c>
+      <c r="H10" s="48"/>
+      <c r="I10" s="53">
+        <f>AVERAGE(I12:I27)</f>
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="26"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="37"/>
+      <c r="AG10" s="37"/>
+      <c r="AH10" s="37"/>
+      <c r="AI10" s="37"/>
+      <c r="AJ10" s="37"/>
+      <c r="AK10" s="37"/>
+      <c r="AL10" s="37"/>
+      <c r="AM10" s="37"/>
+      <c r="AN10" s="37"/>
       <c r="AO10" s="5"/>
     </row>
     <row r="11" spans="2:41" ht="18" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="39">
+      <c r="D11" s="32"/>
+      <c r="E11" s="35">
         <f>IF(MIN(E12:E15)&gt;0,MIN(E12:E15),"")</f>
         <v>43391</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="35">
         <f>IF(MAX(F12:F15)&gt;0,MAX(F12:F15),"")</f>
         <v>43398</v>
       </c>
-      <c r="G11" s="53" t="str">
+      <c r="G11" s="49" t="str">
         <f>IF(OR(E11="",F11=""),"",NETWORKDAYS(E11,F11)&amp; " day(s)")</f>
         <v>6 day(s)</v>
       </c>
-      <c r="H11" s="53"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
-      <c r="AA11" s="40"/>
-      <c r="AB11" s="40"/>
-      <c r="AC11" s="40"/>
-      <c r="AD11" s="40"/>
-      <c r="AE11" s="40"/>
-      <c r="AF11" s="40"/>
-      <c r="AG11" s="40"/>
-      <c r="AH11" s="40"/>
-      <c r="AI11" s="40"/>
-      <c r="AJ11" s="40"/>
-      <c r="AK11" s="40"/>
-      <c r="AL11" s="40"/>
-      <c r="AM11" s="40"/>
-      <c r="AN11" s="40"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="36"/>
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="36"/>
+      <c r="AI11" s="36"/>
+      <c r="AJ11" s="36"/>
+      <c r="AK11" s="36"/>
+      <c r="AL11" s="36"/>
+      <c r="AM11" s="36"/>
+      <c r="AN11" s="36"/>
       <c r="AO11" s="5"/>
     </row>
     <row r="12" spans="2:41" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12" s="12">
         <v>43391</v>
@@ -2433,17 +2412,17 @@
       <c r="F12" s="12">
         <v>43393</v>
       </c>
-      <c r="G12" s="54" t="str">
+      <c r="G12" s="50" t="str">
         <f>IF(OR(E12=0,F12=0),"",NETWORKDAYS(E12,F12)&amp; " day(s)")</f>
         <v>2 day(s)</v>
       </c>
-      <c r="H12" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="59">
+      <c r="H12" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="55">
         <v>1</v>
       </c>
-      <c r="J12" s="31"/>
+      <c r="J12" s="28"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
@@ -2479,10 +2458,10 @@
     <row r="13" spans="2:41" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E13" s="12">
         <v>43395</v>
@@ -2490,17 +2469,17 @@
       <c r="F13" s="12">
         <v>43397</v>
       </c>
-      <c r="G13" s="54" t="str">
+      <c r="G13" s="50" t="str">
         <f>IF(OR(E13=0,F13=0),"",NETWORKDAYS(E13,F13)&amp; " day(s)")</f>
         <v>3 day(s)</v>
       </c>
-      <c r="H13" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="59">
+      <c r="H13" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="55">
         <v>1</v>
       </c>
-      <c r="J13" s="31"/>
+      <c r="J13" s="28"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
@@ -2536,10 +2515,10 @@
     <row r="14" spans="2:41" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E14" s="12">
         <v>43396</v>
@@ -2547,17 +2526,17 @@
       <c r="F14" s="12">
         <v>43398</v>
       </c>
-      <c r="G14" s="54" t="str">
+      <c r="G14" s="50" t="str">
         <f>IF(OR(E14=0,F14=0),"",NETWORKDAYS(E14,F14)&amp; " day(s)")</f>
         <v>3 day(s)</v>
       </c>
-      <c r="H14" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="59">
-        <v>0.3</v>
-      </c>
-      <c r="J14" s="31"/>
+      <c r="H14" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="55">
+        <v>1</v>
+      </c>
+      <c r="J14" s="28"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
@@ -2596,10 +2575,10 @@
       <c r="D15" s="14"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="31"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="28"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
@@ -2634,82 +2613,82 @@
     </row>
     <row r="16" spans="2:41" ht="18" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="39">
+      <c r="D16" s="32"/>
+      <c r="E16" s="35">
         <f>IF(MIN(E17:E20)&gt;0,MIN(E17:E20),"")</f>
-        <v>43399</v>
-      </c>
-      <c r="F16" s="39">
+        <v>43400</v>
+      </c>
+      <c r="F16" s="35">
         <f>IF(MAX(F17:F20)&gt;0,MAX(F17:F20),"")</f>
         <v>43412</v>
       </c>
-      <c r="G16" s="53" t="str">
+      <c r="G16" s="49" t="str">
         <f>IF(OR(E16="",F16=""),"",NETWORKDAYS(E16,F16)&amp; " day(s)")</f>
-        <v>10 day(s)</v>
-      </c>
-      <c r="H16" s="53"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="40"/>
-      <c r="AD16" s="40"/>
-      <c r="AE16" s="40"/>
-      <c r="AF16" s="40"/>
-      <c r="AG16" s="40"/>
-      <c r="AH16" s="40"/>
-      <c r="AI16" s="40"/>
-      <c r="AJ16" s="40"/>
-      <c r="AK16" s="40"/>
-      <c r="AL16" s="40"/>
-      <c r="AM16" s="40"/>
-      <c r="AN16" s="40"/>
+        <v>9 day(s)</v>
+      </c>
+      <c r="H16" s="49"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="36"/>
+      <c r="AE16" s="36"/>
+      <c r="AF16" s="36"/>
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="36"/>
+      <c r="AI16" s="36"/>
+      <c r="AJ16" s="36"/>
+      <c r="AK16" s="36"/>
+      <c r="AL16" s="36"/>
+      <c r="AM16" s="36"/>
+      <c r="AN16" s="36"/>
       <c r="AO16" s="5"/>
     </row>
     <row r="17" spans="2:77" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17" s="12">
-        <v>43399</v>
+        <v>43400</v>
       </c>
       <c r="F17" s="12">
         <v>43412</v>
       </c>
-      <c r="G17" s="54" t="str">
+      <c r="G17" s="50" t="str">
         <f>IF(OR(E17=0,F17=0),"",NETWORKDAYS(E17,F17)&amp; " day(s)")</f>
-        <v>10 day(s)</v>
-      </c>
-      <c r="H17" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="59">
+        <v>9 day(s)</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="55">
         <v>0</v>
       </c>
-      <c r="J17" s="31"/>
+      <c r="J17" s="28"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
@@ -2745,10 +2724,10 @@
     <row r="18" spans="2:77" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E18" s="12">
         <v>43403</v>
@@ -2756,17 +2735,17 @@
       <c r="F18" s="12">
         <v>43405</v>
       </c>
-      <c r="G18" s="54" t="str">
+      <c r="G18" s="50" t="str">
         <f>IF(OR(E18=0,F18=0),"",NETWORKDAYS(E18,F18)&amp; " day(s)")</f>
         <v>3 day(s)</v>
       </c>
-      <c r="H18" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="59">
+      <c r="H18" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="55">
         <v>0</v>
       </c>
-      <c r="J18" s="31"/>
+      <c r="J18" s="28"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
@@ -2802,28 +2781,28 @@
     <row r="19" spans="2:77" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E19" s="12">
-        <v>43402</v>
+        <v>43401</v>
       </c>
       <c r="F19" s="12">
-        <v>43409</v>
-      </c>
-      <c r="G19" s="54" t="str">
+        <v>43410</v>
+      </c>
+      <c r="G19" s="50" t="str">
         <f>IF(OR(E19=0,F19=0),"",NETWORKDAYS(E19,F19)&amp; " day(s)")</f>
-        <v>6 day(s)</v>
-      </c>
-      <c r="H19" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="59">
+        <v>7 day(s)</v>
+      </c>
+      <c r="H19" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="55">
         <v>0</v>
       </c>
-      <c r="J19" s="31"/>
+      <c r="J19" s="28"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
@@ -2862,10 +2841,10 @@
       <c r="D20" s="14"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="31"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="28"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
@@ -2898,84 +2877,62 @@
       <c r="AN20" s="15"/>
       <c r="AO20" s="5"/>
     </row>
-    <row r="21" spans="2:77" ht="18" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
-      <c r="C21" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="39">
-        <f>IF(MIN(E22:E25)&gt;0,MIN(E22:E25),"")</f>
-        <v>43313</v>
-      </c>
-      <c r="F21" s="39">
-        <f>IF(MAX(F22:F25)&gt;0,MAX(F22:F25),"")</f>
-        <v>43340</v>
-      </c>
-      <c r="G21" s="53" t="str">
-        <f>IF(OR(E21="",F21=""),"",NETWORKDAYS(E21,F21)&amp; " day(s)")</f>
-        <v>20 day(s)</v>
-      </c>
-      <c r="H21" s="53"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="40"/>
-      <c r="AA21" s="40"/>
-      <c r="AB21" s="40"/>
-      <c r="AC21" s="40"/>
-      <c r="AD21" s="40"/>
-      <c r="AE21" s="40"/>
-      <c r="AF21" s="40"/>
-      <c r="AG21" s="40"/>
-      <c r="AH21" s="40"/>
-      <c r="AI21" s="40"/>
-      <c r="AJ21" s="40"/>
-      <c r="AK21" s="40"/>
-      <c r="AL21" s="40"/>
-      <c r="AM21" s="40"/>
-      <c r="AN21" s="40"/>
+      <c r="C21" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="15"/>
+      <c r="AF21" s="15"/>
+      <c r="AG21" s="15"/>
+      <c r="AH21" s="15"/>
+      <c r="AI21" s="15"/>
+      <c r="AJ21" s="15"/>
+      <c r="AK21" s="15"/>
+      <c r="AL21" s="15"/>
+      <c r="AM21" s="15"/>
+      <c r="AN21" s="15"/>
       <c r="AO21" s="5"/>
     </row>
     <row r="22" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="12">
-        <v>43313</v>
-      </c>
-      <c r="F22" s="12">
-        <v>43319</v>
-      </c>
-      <c r="G22" s="54" t="str">
-        <f>IF(OR(E22=0,F22=0),"",NETWORKDAYS(E22,F22)&amp; " day(s)")</f>
-        <v>5 day(s)</v>
-      </c>
-      <c r="H22" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" s="59">
-        <v>0.7</v>
-      </c>
-      <c r="J22" s="31"/>
+        <v>12</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="28"/>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
@@ -3011,28 +2968,15 @@
     <row r="23" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="12">
-        <v>43317</v>
-      </c>
-      <c r="F23" s="12">
-        <v>43322</v>
-      </c>
-      <c r="G23" s="54" t="str">
-        <f>IF(OR(E23=0,F23=0),"",NETWORKDAYS(E23,F23)&amp; " day(s)")</f>
-        <v>5 day(s)</v>
-      </c>
-      <c r="H23" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="59">
-        <v>0.8</v>
-      </c>
-      <c r="J23" s="31"/>
+        <v>13</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="28"/>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
@@ -3067,29 +3011,14 @@
     </row>
     <row r="24" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
-      <c r="C24" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="12">
-        <v>43324</v>
-      </c>
-      <c r="F24" s="12">
-        <v>43340</v>
-      </c>
-      <c r="G24" s="54" t="str">
-        <f>IF(OR(E24=0,F24=0),"",NETWORKDAYS(E24,F24)&amp; " day(s)")</f>
-        <v>12 day(s)</v>
-      </c>
-      <c r="H24" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="59">
-        <v>0.9</v>
-      </c>
-      <c r="J24" s="31"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="28"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
@@ -3124,14 +3053,16 @@
     </row>
     <row r="25" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
-      <c r="C25" s="13"/>
+      <c r="C25" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="D25" s="14"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="31"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="28"/>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
@@ -3164,57 +3095,48 @@
       <c r="AN25" s="15"/>
       <c r="AO25" s="5"/>
     </row>
-    <row r="26" spans="2:77" ht="18" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
-      <c r="C26" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="39">
-        <f>IF(MIN(E27:E30)&gt;0,MIN(E27:E30),"")</f>
-        <v>43344</v>
-      </c>
-      <c r="F26" s="39">
-        <f>IF(MAX(F27:F30)&gt;0,MAX(F27:F30),"")</f>
-        <v>43380</v>
-      </c>
-      <c r="G26" s="53" t="str">
-        <f>IF(OR(E26="",F26=""),"",NETWORKDAYS(E26,F26)&amp; " day(s)")</f>
-        <v>25 day(s)</v>
-      </c>
-      <c r="H26" s="53"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="40"/>
-      <c r="AA26" s="40"/>
-      <c r="AB26" s="40"/>
-      <c r="AC26" s="40"/>
-      <c r="AD26" s="40"/>
-      <c r="AE26" s="40"/>
-      <c r="AF26" s="40"/>
-      <c r="AG26" s="40"/>
-      <c r="AH26" s="40"/>
-      <c r="AI26" s="40"/>
-      <c r="AJ26" s="40"/>
-      <c r="AK26" s="40"/>
-      <c r="AL26" s="40"/>
-      <c r="AM26" s="40"/>
-      <c r="AN26" s="40"/>
+      <c r="C26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="15"/>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="15"/>
+      <c r="AH26" s="15"/>
+      <c r="AI26" s="15"/>
+      <c r="AJ26" s="15"/>
+      <c r="AK26" s="15"/>
+      <c r="AL26" s="15"/>
+      <c r="AM26" s="15"/>
+      <c r="AN26" s="15"/>
       <c r="AO26" s="5"/>
     </row>
     <row r="27" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3222,26 +3144,13 @@
       <c r="C27" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="12">
-        <v>43344</v>
-      </c>
-      <c r="F27" s="12">
-        <v>43348</v>
-      </c>
-      <c r="G27" s="54" t="str">
-        <f>IF(OR(E27=0,F27=0),"",NETWORKDAYS(E27,F27)&amp; " day(s)")</f>
-        <v>3 day(s)</v>
-      </c>
-      <c r="H27" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="59">
-        <v>1</v>
-      </c>
-      <c r="J27" s="31"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="28"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
@@ -3276,29 +3185,14 @@
     </row>
     <row r="28" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
-      <c r="C28" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="12">
-        <v>43358</v>
-      </c>
-      <c r="F28" s="12">
-        <v>43366</v>
-      </c>
-      <c r="G28" s="54" t="str">
-        <f>IF(OR(E28=0,F28=0),"",NETWORKDAYS(E28,F28)&amp; " day(s)")</f>
-        <v>5 day(s)</v>
-      </c>
-      <c r="H28" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="59">
-        <v>0.15</v>
-      </c>
-      <c r="J28" s="31"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="28"/>
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
@@ -3331,558 +3225,546 @@
       <c r="AN28" s="15"/>
       <c r="AO28" s="5"/>
     </row>
-    <row r="29" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="12">
-        <v>43372</v>
-      </c>
-      <c r="F29" s="12">
-        <v>43380</v>
-      </c>
-      <c r="G29" s="54" t="str">
-        <f>IF(OR(E29=0,F29=0),"",NETWORKDAYS(E29,F29)&amp; " day(s)")</f>
-        <v>5 day(s)</v>
-      </c>
-      <c r="H29" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="59">
-        <v>0.25</v>
-      </c>
-      <c r="J29" s="31"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
-      <c r="W29" s="15"/>
-      <c r="X29" s="15"/>
-      <c r="Y29" s="15"/>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="15"/>
-      <c r="AB29" s="15"/>
-      <c r="AC29" s="15"/>
-      <c r="AD29" s="15"/>
-      <c r="AE29" s="15"/>
-      <c r="AF29" s="15"/>
-      <c r="AG29" s="15"/>
-      <c r="AH29" s="15"/>
-      <c r="AI29" s="15"/>
-      <c r="AJ29" s="15"/>
-      <c r="AK29" s="15"/>
-      <c r="AL29" s="15"/>
-      <c r="AM29" s="15"/>
-      <c r="AN29" s="15"/>
-      <c r="AO29" s="5"/>
-    </row>
-    <row r="30" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="15"/>
-      <c r="AB30" s="15"/>
-      <c r="AC30" s="15"/>
-      <c r="AD30" s="15"/>
-      <c r="AE30" s="15"/>
-      <c r="AF30" s="15"/>
-      <c r="AG30" s="15"/>
-      <c r="AH30" s="15"/>
-      <c r="AI30" s="15"/>
-      <c r="AJ30" s="15"/>
-      <c r="AK30" s="15"/>
-      <c r="AL30" s="15"/>
-      <c r="AM30" s="15"/>
-      <c r="AN30" s="15"/>
-      <c r="AO30" s="5"/>
-    </row>
-    <row r="31" spans="2:77" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="18"/>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="18"/>
-      <c r="Z31" s="18"/>
-      <c r="AA31" s="18"/>
-      <c r="AB31" s="18"/>
-      <c r="AC31" s="18"/>
-      <c r="AD31" s="18"/>
-      <c r="AE31" s="18"/>
-      <c r="AF31" s="18"/>
-      <c r="AG31" s="18"/>
-      <c r="AH31" s="18"/>
-      <c r="AI31" s="18"/>
-      <c r="AJ31" s="18"/>
-      <c r="AK31" s="18"/>
-      <c r="AL31" s="18"/>
-      <c r="AM31" s="18"/>
-      <c r="AN31" s="18"/>
-      <c r="AO31" s="5"/>
-    </row>
-    <row r="32" spans="2:77" s="67" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B32" s="69"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="71"/>
-      <c r="S32" s="71"/>
-      <c r="T32" s="71"/>
-      <c r="U32" s="71"/>
-      <c r="V32" s="71"/>
-      <c r="W32" s="71"/>
-      <c r="X32" s="71"/>
-      <c r="Y32" s="71"/>
-      <c r="Z32" s="71"/>
-      <c r="AA32" s="71"/>
-      <c r="AB32" s="71"/>
-      <c r="AC32" s="71"/>
-      <c r="BY32" s="68"/>
-    </row>
-    <row r="33" spans="2:77" s="73" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="69"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="71"/>
-      <c r="U33" s="71"/>
-      <c r="V33" s="71"/>
-      <c r="W33" s="71"/>
-      <c r="X33" s="71"/>
-      <c r="Y33" s="71"/>
-      <c r="Z33" s="71"/>
-      <c r="AA33" s="71"/>
-      <c r="AB33" s="71"/>
-      <c r="AC33" s="71"/>
-      <c r="AD33" s="67"/>
-      <c r="AE33" s="67"/>
-      <c r="AF33" s="67"/>
-      <c r="AG33" s="67"/>
-      <c r="AH33" s="67"/>
-      <c r="AI33" s="67"/>
-      <c r="AJ33" s="67"/>
-      <c r="AK33" s="67"/>
-      <c r="AL33" s="67"/>
-      <c r="AM33" s="67"/>
-      <c r="AN33" s="67"/>
-      <c r="AO33" s="67"/>
-      <c r="AX33" s="74"/>
-      <c r="AY33" s="74"/>
-      <c r="AZ33" s="74"/>
-      <c r="BA33" s="74"/>
-      <c r="BB33" s="74"/>
-      <c r="BC33" s="74"/>
-      <c r="BD33" s="74"/>
-      <c r="BE33" s="74"/>
-    </row>
-    <row r="34" spans="2:77" s="67" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="69"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="71"/>
-      <c r="S34" s="71"/>
-      <c r="T34" s="71"/>
-      <c r="U34" s="71"/>
-      <c r="V34" s="71"/>
-      <c r="W34" s="71"/>
-      <c r="X34" s="71"/>
-      <c r="Y34" s="71"/>
-      <c r="Z34" s="71"/>
-      <c r="AA34" s="71"/>
-      <c r="AB34" s="71"/>
-      <c r="AC34" s="71"/>
-      <c r="AP34" s="72"/>
-      <c r="AQ34" s="72"/>
-      <c r="AR34" s="72"/>
-      <c r="AS34" s="72"/>
-      <c r="AT34" s="72"/>
-      <c r="AU34" s="72"/>
-      <c r="AV34" s="72"/>
-      <c r="AW34" s="72"/>
-      <c r="AX34" s="72"/>
-      <c r="AY34" s="72"/>
-      <c r="AZ34" s="72"/>
-      <c r="BY34" s="68"/>
-    </row>
-    <row r="35" spans="2:77" s="67" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B35" s="69"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="71"/>
-      <c r="R35" s="71"/>
-      <c r="S35" s="71"/>
-      <c r="T35" s="71"/>
-      <c r="U35" s="71"/>
-      <c r="V35" s="71"/>
-      <c r="W35" s="71"/>
-      <c r="X35" s="71"/>
-      <c r="Y35" s="71"/>
-      <c r="Z35" s="71"/>
-      <c r="AA35" s="71"/>
-      <c r="AB35" s="71"/>
-      <c r="AC35" s="71"/>
-      <c r="BY35" s="68"/>
-    </row>
-    <row r="36" spans="2:77" s="67" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B36" s="69"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="71"/>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="71"/>
-      <c r="R36" s="71"/>
-      <c r="S36" s="71"/>
-      <c r="T36" s="71"/>
-      <c r="U36" s="71"/>
-      <c r="V36" s="71"/>
-      <c r="W36" s="71"/>
-      <c r="X36" s="71"/>
-      <c r="Y36" s="71"/>
-      <c r="Z36" s="71"/>
-      <c r="AA36" s="71"/>
-      <c r="AB36" s="71"/>
-      <c r="AC36" s="71"/>
-      <c r="BY36" s="68"/>
-    </row>
-    <row r="37" spans="2:77" s="67" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B37" s="69"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="71"/>
-      <c r="O37" s="71"/>
-      <c r="P37" s="71"/>
-      <c r="Q37" s="71"/>
-      <c r="R37" s="71"/>
-      <c r="S37" s="71"/>
-      <c r="T37" s="71"/>
-      <c r="U37" s="71"/>
-      <c r="V37" s="71"/>
-      <c r="W37" s="71"/>
-      <c r="X37" s="71"/>
-      <c r="Y37" s="71"/>
-      <c r="Z37" s="71"/>
-      <c r="AA37" s="71"/>
-      <c r="AB37" s="71"/>
-      <c r="AC37" s="71"/>
-      <c r="BY37" s="68"/>
-    </row>
-    <row r="38" spans="2:77" s="67" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B38" s="69"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="71"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="71"/>
-      <c r="O38" s="71"/>
-      <c r="P38" s="71"/>
-      <c r="Q38" s="71"/>
-      <c r="R38" s="71"/>
-      <c r="S38" s="71"/>
-      <c r="T38" s="71"/>
-      <c r="U38" s="71"/>
-      <c r="V38" s="71"/>
-      <c r="W38" s="71"/>
-      <c r="X38" s="71"/>
-      <c r="Y38" s="71"/>
-      <c r="Z38" s="71"/>
-      <c r="AA38" s="71"/>
-      <c r="AB38" s="71"/>
-      <c r="AC38" s="71"/>
-      <c r="BY38" s="68"/>
-    </row>
-    <row r="39" spans="2:77" s="67" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B39" s="69"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
-      <c r="M39" s="71"/>
-      <c r="N39" s="71"/>
-      <c r="O39" s="71"/>
-      <c r="P39" s="71"/>
-      <c r="Q39" s="71"/>
-      <c r="R39" s="71"/>
-      <c r="S39" s="71"/>
-      <c r="T39" s="71"/>
-      <c r="U39" s="71"/>
-      <c r="V39" s="71"/>
-      <c r="W39" s="71"/>
-      <c r="X39" s="71"/>
-      <c r="Y39" s="71"/>
-      <c r="Z39" s="71"/>
-      <c r="AA39" s="71"/>
-      <c r="AB39" s="71"/>
-      <c r="AC39" s="71"/>
-      <c r="BY39" s="68"/>
-    </row>
-    <row r="40" spans="2:77" s="67" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B40" s="69"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="71"/>
-      <c r="N40" s="71"/>
-      <c r="O40" s="71"/>
-      <c r="P40" s="71"/>
-      <c r="Q40" s="71"/>
-      <c r="R40" s="71"/>
-      <c r="S40" s="71"/>
-      <c r="T40" s="71"/>
-      <c r="U40" s="71"/>
-      <c r="V40" s="71"/>
-      <c r="W40" s="71"/>
-      <c r="X40" s="71"/>
-      <c r="Y40" s="71"/>
-      <c r="Z40" s="71"/>
-      <c r="AA40" s="71"/>
-      <c r="AB40" s="71"/>
-      <c r="AC40" s="71"/>
-      <c r="BY40" s="68"/>
-    </row>
-    <row r="41" spans="2:77" s="67" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B41" s="69"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="71"/>
-      <c r="M41" s="71"/>
-      <c r="N41" s="71"/>
-      <c r="O41" s="71"/>
-      <c r="P41" s="71"/>
-      <c r="Q41" s="71"/>
-      <c r="R41" s="71"/>
-      <c r="S41" s="71"/>
-      <c r="T41" s="71"/>
-      <c r="U41" s="71"/>
-      <c r="V41" s="71"/>
-      <c r="W41" s="71"/>
-      <c r="X41" s="71"/>
-      <c r="Y41" s="71"/>
-      <c r="Z41" s="71"/>
-      <c r="AA41" s="71"/>
-      <c r="AB41" s="71"/>
-      <c r="AC41" s="71"/>
-      <c r="BY41" s="68"/>
-    </row>
-    <row r="42" spans="2:77" s="67" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B42" s="69"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="71"/>
-      <c r="M42" s="71"/>
-      <c r="N42" s="71"/>
-      <c r="O42" s="71"/>
-      <c r="P42" s="71"/>
-      <c r="Q42" s="71"/>
-      <c r="R42" s="71"/>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
-      <c r="W42" s="71"/>
-      <c r="X42" s="71"/>
-      <c r="Y42" s="71"/>
-      <c r="Z42" s="71"/>
-      <c r="AA42" s="71"/>
-      <c r="AB42" s="71"/>
-      <c r="AC42" s="71"/>
-      <c r="BY42" s="68"/>
-    </row>
-    <row r="43" spans="2:77" s="67" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B43" s="69"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="71"/>
-      <c r="N43" s="71"/>
-      <c r="O43" s="71"/>
-      <c r="P43" s="71"/>
-      <c r="Q43" s="71"/>
-      <c r="R43" s="71"/>
-      <c r="S43" s="71"/>
-      <c r="T43" s="71"/>
-      <c r="U43" s="71"/>
-      <c r="V43" s="71"/>
-      <c r="W43" s="71"/>
-      <c r="X43" s="71"/>
-      <c r="Y43" s="71"/>
-      <c r="Z43" s="71"/>
-      <c r="AA43" s="71"/>
-      <c r="AB43" s="71"/>
-      <c r="AC43" s="71"/>
-      <c r="BY43" s="68"/>
-    </row>
-    <row r="44" spans="2:77" s="67" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B44" s="69"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="71"/>
+    <row r="29" spans="2:77" s="63" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B29" s="65"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="67"/>
+      <c r="Q29" s="67"/>
+      <c r="R29" s="67"/>
+      <c r="S29" s="67"/>
+      <c r="T29" s="67"/>
+      <c r="U29" s="67"/>
+      <c r="V29" s="67"/>
+      <c r="W29" s="67"/>
+      <c r="X29" s="67"/>
+      <c r="Y29" s="67"/>
+      <c r="Z29" s="67"/>
+      <c r="AA29" s="67"/>
+      <c r="AB29" s="67"/>
+      <c r="AC29" s="67"/>
+      <c r="BY29" s="64"/>
+    </row>
+    <row r="30" spans="2:77" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="65"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="67"/>
+      <c r="Q30" s="67"/>
+      <c r="R30" s="67"/>
+      <c r="S30" s="67"/>
+      <c r="T30" s="67"/>
+      <c r="U30" s="67"/>
+      <c r="V30" s="67"/>
+      <c r="W30" s="67"/>
+      <c r="X30" s="67"/>
+      <c r="Y30" s="67"/>
+      <c r="Z30" s="67"/>
+      <c r="AA30" s="67"/>
+      <c r="AB30" s="67"/>
+      <c r="AC30" s="67"/>
+      <c r="AD30" s="63"/>
+      <c r="AE30" s="63"/>
+      <c r="AF30" s="63"/>
+      <c r="AG30" s="63"/>
+      <c r="AH30" s="63"/>
+      <c r="AI30" s="63"/>
+      <c r="AJ30" s="63"/>
+      <c r="AK30" s="63"/>
+      <c r="AL30" s="63"/>
+      <c r="AM30" s="63"/>
+      <c r="AN30" s="63"/>
+      <c r="AO30" s="63"/>
+      <c r="AX30" s="70"/>
+      <c r="AY30" s="70"/>
+      <c r="AZ30" s="70"/>
+      <c r="BA30" s="70"/>
+      <c r="BB30" s="70"/>
+      <c r="BC30" s="70"/>
+      <c r="BD30" s="70"/>
+      <c r="BE30" s="70"/>
+    </row>
+    <row r="31" spans="2:77" s="63" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="65"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="67"/>
+      <c r="N31" s="67"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="67"/>
+      <c r="Q31" s="67"/>
+      <c r="R31" s="67"/>
+      <c r="S31" s="67"/>
+      <c r="T31" s="67"/>
+      <c r="U31" s="67"/>
+      <c r="V31" s="67"/>
+      <c r="W31" s="67"/>
+      <c r="X31" s="67"/>
+      <c r="Y31" s="67"/>
+      <c r="Z31" s="67"/>
+      <c r="AA31" s="67"/>
+      <c r="AB31" s="67"/>
+      <c r="AC31" s="67"/>
+      <c r="AP31" s="68"/>
+      <c r="AQ31" s="68"/>
+      <c r="AR31" s="68"/>
+      <c r="AS31" s="68"/>
+      <c r="AT31" s="68"/>
+      <c r="AU31" s="68"/>
+      <c r="AV31" s="68"/>
+      <c r="AW31" s="68"/>
+      <c r="AX31" s="68"/>
+      <c r="AY31" s="68"/>
+      <c r="AZ31" s="68"/>
+      <c r="BY31" s="64"/>
+    </row>
+    <row r="32" spans="2:77" s="63" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B32" s="65"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="67"/>
+      <c r="Q32" s="67"/>
+      <c r="R32" s="67"/>
+      <c r="S32" s="67"/>
+      <c r="T32" s="67"/>
+      <c r="U32" s="67"/>
+      <c r="V32" s="67"/>
+      <c r="W32" s="67"/>
+      <c r="X32" s="67"/>
+      <c r="Y32" s="67"/>
+      <c r="Z32" s="67"/>
+      <c r="AA32" s="67"/>
+      <c r="AB32" s="67"/>
+      <c r="AC32" s="67"/>
+      <c r="BY32" s="64"/>
+    </row>
+    <row r="33" spans="2:77" s="63" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B33" s="65"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="67"/>
+      <c r="P33" s="67"/>
+      <c r="Q33" s="67"/>
+      <c r="R33" s="67"/>
+      <c r="S33" s="67"/>
+      <c r="T33" s="67"/>
+      <c r="U33" s="67"/>
+      <c r="V33" s="67"/>
+      <c r="W33" s="67"/>
+      <c r="X33" s="67"/>
+      <c r="Y33" s="67"/>
+      <c r="Z33" s="67"/>
+      <c r="AA33" s="67"/>
+      <c r="AB33" s="67"/>
+      <c r="AC33" s="67"/>
+      <c r="BY33" s="64"/>
+    </row>
+    <row r="34" spans="2:77" s="63" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B34" s="65"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="67"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="67"/>
+      <c r="Q34" s="67"/>
+      <c r="R34" s="67"/>
+      <c r="S34" s="67"/>
+      <c r="T34" s="67"/>
+      <c r="U34" s="67"/>
+      <c r="V34" s="67"/>
+      <c r="W34" s="67"/>
+      <c r="X34" s="67"/>
+      <c r="Y34" s="67"/>
+      <c r="Z34" s="67"/>
+      <c r="AA34" s="67"/>
+      <c r="AB34" s="67"/>
+      <c r="AC34" s="67"/>
+      <c r="BY34" s="64"/>
+    </row>
+    <row r="35" spans="2:77" s="63" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B35" s="65"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="67"/>
+      <c r="O35" s="67"/>
+      <c r="P35" s="67"/>
+      <c r="Q35" s="67"/>
+      <c r="R35" s="67"/>
+      <c r="S35" s="67"/>
+      <c r="T35" s="67"/>
+      <c r="U35" s="67"/>
+      <c r="V35" s="67"/>
+      <c r="W35" s="67"/>
+      <c r="X35" s="67"/>
+      <c r="Y35" s="67"/>
+      <c r="Z35" s="67"/>
+      <c r="AA35" s="67"/>
+      <c r="AB35" s="67"/>
+      <c r="AC35" s="67"/>
+      <c r="BY35" s="64"/>
+    </row>
+    <row r="36" spans="2:77" s="63" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B36" s="65"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="67"/>
+      <c r="O36" s="67"/>
+      <c r="P36" s="67"/>
+      <c r="Q36" s="67"/>
+      <c r="R36" s="67"/>
+      <c r="S36" s="67"/>
+      <c r="T36" s="67"/>
+      <c r="U36" s="67"/>
+      <c r="V36" s="67"/>
+      <c r="W36" s="67"/>
+      <c r="X36" s="67"/>
+      <c r="Y36" s="67"/>
+      <c r="Z36" s="67"/>
+      <c r="AA36" s="67"/>
+      <c r="AB36" s="67"/>
+      <c r="AC36" s="67"/>
+      <c r="BY36" s="64"/>
+    </row>
+    <row r="37" spans="2:77" s="63" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B37" s="65"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="67"/>
+      <c r="Q37" s="67"/>
+      <c r="R37" s="67"/>
+      <c r="S37" s="67"/>
+      <c r="T37" s="67"/>
+      <c r="U37" s="67"/>
+      <c r="V37" s="67"/>
+      <c r="W37" s="67"/>
+      <c r="X37" s="67"/>
+      <c r="Y37" s="67"/>
+      <c r="Z37" s="67"/>
+      <c r="AA37" s="67"/>
+      <c r="AB37" s="67"/>
+      <c r="AC37" s="67"/>
+      <c r="BY37" s="64"/>
+    </row>
+    <row r="38" spans="2:77" s="63" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B38" s="65"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="67"/>
+      <c r="Q38" s="67"/>
+      <c r="R38" s="67"/>
+      <c r="S38" s="67"/>
+      <c r="T38" s="67"/>
+      <c r="U38" s="67"/>
+      <c r="V38" s="67"/>
+      <c r="W38" s="67"/>
+      <c r="X38" s="67"/>
+      <c r="Y38" s="67"/>
+      <c r="Z38" s="67"/>
+      <c r="AA38" s="67"/>
+      <c r="AB38" s="67"/>
+      <c r="AC38" s="67"/>
+      <c r="BY38" s="64"/>
+    </row>
+    <row r="39" spans="2:77" s="63" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B39" s="65"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="67"/>
+      <c r="M39" s="67"/>
+      <c r="N39" s="67"/>
+      <c r="O39" s="67"/>
+      <c r="P39" s="67"/>
+      <c r="Q39" s="67"/>
+      <c r="R39" s="67"/>
+      <c r="S39" s="67"/>
+      <c r="T39" s="67"/>
+      <c r="U39" s="67"/>
+      <c r="V39" s="67"/>
+      <c r="W39" s="67"/>
+      <c r="X39" s="67"/>
+      <c r="Y39" s="67"/>
+      <c r="Z39" s="67"/>
+      <c r="AA39" s="67"/>
+      <c r="AB39" s="67"/>
+      <c r="AC39" s="67"/>
+      <c r="BY39" s="64"/>
+    </row>
+    <row r="40" spans="2:77" s="63" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B40" s="65"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="67"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="67"/>
+      <c r="Q40" s="67"/>
+      <c r="R40" s="67"/>
+      <c r="S40" s="67"/>
+      <c r="T40" s="67"/>
+      <c r="U40" s="67"/>
+      <c r="V40" s="67"/>
+      <c r="W40" s="67"/>
+      <c r="X40" s="67"/>
+      <c r="Y40" s="67"/>
+      <c r="Z40" s="67"/>
+      <c r="AA40" s="67"/>
+      <c r="AB40" s="67"/>
+      <c r="AC40" s="67"/>
+      <c r="BY40" s="64"/>
+    </row>
+    <row r="41" spans="2:77" s="63" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B41" s="65"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="3"/>
+      <c r="AG41" s="3"/>
+      <c r="AH41" s="3"/>
+      <c r="AI41" s="3"/>
+      <c r="AJ41" s="3"/>
+      <c r="AK41" s="3"/>
+      <c r="AL41" s="3"/>
+      <c r="AM41" s="3"/>
+      <c r="AN41" s="3"/>
+      <c r="AO41" s="1"/>
+      <c r="BY41" s="64"/>
+    </row>
+    <row r="42" spans="2:77" s="63" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B42" s="65"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="3"/>
+      <c r="AG42" s="3"/>
+      <c r="AH42" s="3"/>
+      <c r="AI42" s="3"/>
+      <c r="AJ42" s="3"/>
+      <c r="AK42" s="3"/>
+      <c r="AL42" s="3"/>
+      <c r="AM42" s="3"/>
+      <c r="AN42" s="3"/>
+      <c r="AO42" s="1"/>
+      <c r="BY42" s="64"/>
+    </row>
+    <row r="43" spans="2:77" s="63" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B43" s="65"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3"/>
+      <c r="AF43" s="3"/>
+      <c r="AG43" s="3"/>
+      <c r="AH43" s="3"/>
+      <c r="AI43" s="3"/>
+      <c r="AJ43" s="3"/>
+      <c r="AK43" s="3"/>
+      <c r="AL43" s="3"/>
+      <c r="AM43" s="3"/>
+      <c r="AN43" s="3"/>
+      <c r="AO43" s="1"/>
+      <c r="BY43" s="64"/>
+    </row>
+    <row r="44" spans="2:77" s="63" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B44" s="65"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -3914,18 +3796,18 @@
       <c r="AM44" s="3"/>
       <c r="AN44" s="3"/>
       <c r="AO44" s="1"/>
-      <c r="BY44" s="68"/>
-    </row>
-    <row r="45" spans="2:77" s="67" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B45" s="69"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="71"/>
-      <c r="I45" s="71"/>
-      <c r="J45" s="71"/>
+      <c r="BY44" s="64"/>
+    </row>
+    <row r="45" spans="2:77" s="63" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B45" s="65"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -3957,18 +3839,18 @@
       <c r="AM45" s="3"/>
       <c r="AN45" s="3"/>
       <c r="AO45" s="1"/>
-      <c r="BY45" s="68"/>
-    </row>
-    <row r="46" spans="2:77" s="67" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B46" s="69"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="71"/>
+      <c r="BY45" s="64"/>
+    </row>
+    <row r="46" spans="2:77" s="63" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B46" s="65"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -4000,18 +3882,18 @@
       <c r="AM46" s="3"/>
       <c r="AN46" s="3"/>
       <c r="AO46" s="1"/>
-      <c r="BY46" s="68"/>
-    </row>
-    <row r="47" spans="2:77" s="67" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B47" s="69"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="71"/>
+      <c r="BY46" s="64"/>
+    </row>
+    <row r="47" spans="2:77" s="63" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B47" s="65"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -4043,18 +3925,18 @@
       <c r="AM47" s="3"/>
       <c r="AN47" s="3"/>
       <c r="AO47" s="1"/>
-      <c r="BY47" s="68"/>
-    </row>
-    <row r="48" spans="2:77" s="67" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B48" s="69"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="71"/>
+      <c r="BY47" s="64"/>
+    </row>
+    <row r="48" spans="2:77" s="63" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B48" s="65"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
@@ -4086,18 +3968,18 @@
       <c r="AM48" s="3"/>
       <c r="AN48" s="3"/>
       <c r="AO48" s="1"/>
-      <c r="BY48" s="68"/>
-    </row>
-    <row r="49" spans="2:77" s="67" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B49" s="69"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71"/>
-      <c r="J49" s="71"/>
+      <c r="BY48" s="64"/>
+    </row>
+    <row r="49" spans="2:77" s="63" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B49" s="65"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="67"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
@@ -4129,18 +4011,18 @@
       <c r="AM49" s="3"/>
       <c r="AN49" s="3"/>
       <c r="AO49" s="1"/>
-      <c r="BY49" s="68"/>
-    </row>
-    <row r="50" spans="2:77" s="67" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B50" s="69"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
+      <c r="BY49" s="64"/>
+    </row>
+    <row r="50" spans="2:77" s="63" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B50" s="1"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="67"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -4172,18 +4054,18 @@
       <c r="AM50" s="3"/>
       <c r="AN50" s="3"/>
       <c r="AO50" s="1"/>
-      <c r="BY50" s="68"/>
-    </row>
-    <row r="51" spans="2:77" s="67" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B51" s="69"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="71"/>
-      <c r="J51" s="71"/>
+      <c r="BY50" s="64"/>
+    </row>
+    <row r="51" spans="2:77" s="63" customFormat="1" ht="50.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="1"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="67"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -4215,150 +4097,21 @@
       <c r="AM51" s="3"/>
       <c r="AN51" s="3"/>
       <c r="AO51" s="1"/>
-      <c r="BY51" s="68"/>
-    </row>
-    <row r="52" spans="2:77" s="67" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B52" s="69"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="71"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-      <c r="U52" s="3"/>
-      <c r="V52" s="3"/>
-      <c r="W52" s="3"/>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
-      <c r="Z52" s="3"/>
-      <c r="AA52" s="3"/>
-      <c r="AB52" s="3"/>
-      <c r="AC52" s="3"/>
-      <c r="AD52" s="3"/>
-      <c r="AE52" s="3"/>
-      <c r="AF52" s="3"/>
-      <c r="AG52" s="3"/>
-      <c r="AH52" s="3"/>
-      <c r="AI52" s="3"/>
-      <c r="AJ52" s="3"/>
-      <c r="AK52" s="3"/>
-      <c r="AL52" s="3"/>
-      <c r="AM52" s="3"/>
-      <c r="AN52" s="3"/>
-      <c r="AO52" s="1"/>
-      <c r="BY52" s="68"/>
-    </row>
-    <row r="53" spans="2:77" s="67" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B53" s="1"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="71"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-      <c r="U53" s="3"/>
-      <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
-      <c r="AA53" s="3"/>
-      <c r="AB53" s="3"/>
-      <c r="AC53" s="3"/>
-      <c r="AD53" s="3"/>
-      <c r="AE53" s="3"/>
-      <c r="AF53" s="3"/>
-      <c r="AG53" s="3"/>
-      <c r="AH53" s="3"/>
-      <c r="AI53" s="3"/>
-      <c r="AJ53" s="3"/>
-      <c r="AK53" s="3"/>
-      <c r="AL53" s="3"/>
-      <c r="AM53" s="3"/>
-      <c r="AN53" s="3"/>
-      <c r="AO53" s="1"/>
-      <c r="BY53" s="68"/>
-    </row>
-    <row r="54" spans="2:77" s="67" customFormat="1" ht="50.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="1"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="71"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
-      <c r="V54" s="3"/>
-      <c r="W54" s="3"/>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
-      <c r="AA54" s="3"/>
-      <c r="AB54" s="3"/>
-      <c r="AC54" s="3"/>
-      <c r="AD54" s="3"/>
-      <c r="AE54" s="3"/>
-      <c r="AF54" s="3"/>
-      <c r="AG54" s="3"/>
-      <c r="AH54" s="3"/>
-      <c r="AI54" s="3"/>
-      <c r="AJ54" s="3"/>
-      <c r="AK54" s="3"/>
-      <c r="AL54" s="3"/>
-      <c r="AM54" s="3"/>
-      <c r="AN54" s="3"/>
-      <c r="AO54" s="1"/>
-      <c r="BY54" s="68"/>
+      <c r="BY51" s="64"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="10">
+    <mergeCell ref="C3:I4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="K5:O7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C9:I9"/>
     <mergeCell ref="AJ5:AN7"/>
     <mergeCell ref="P5:T7"/>
     <mergeCell ref="U5:Y7"/>
     <mergeCell ref="Z5:AD7"/>
     <mergeCell ref="AE5:AI7"/>
-    <mergeCell ref="C3:I4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="K5:O7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C9:I9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K8:AN8">
@@ -4366,7 +4119,7 @@
       <formula>$K$8=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I31">
+  <conditionalFormatting sqref="I10:I28">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4380,7 +4133,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H30">
+  <conditionalFormatting sqref="H12:H28">
     <cfRule type="cellIs" dxfId="4" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
@@ -4391,7 +4144,7 @@
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:AN31">
+  <conditionalFormatting sqref="K11:AN28">
     <cfRule type="expression" dxfId="1" priority="133">
       <formula>AND($I11&gt;5%, $E11&lt;=K$8,ROUNDDOWN(NETWORKDAYS($E11,$F11)*$I11,0)+$E11+1&gt;=K$8)</formula>
     </cfRule>
@@ -4399,11 +4152,11 @@
       <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=K$8,$F11&gt;=K$8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D14 D17:D19 D22:D24 D27:D29" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D14 D17:D19 D21:D23 D25:D27" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Low, Medium,High"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12:H14 H17:H19 H22:H24 H27:H29" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12:H14 H17:H19 H21:H23 H25:H27" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Red, Yellow,Green"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4427,7 +4180,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I10:I31</xm:sqref>
+          <xm:sqref>I10:I28</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Gestion/Sprint Tracker.xlsx
+++ b/Gestion/Sprint Tracker.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFF211A-4FF5-4D79-9D1F-30791B6C3524}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1B99C714-1F8B-40F6-A255-1AC663AC76D2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Excel Sprint Project Tracker" sheetId="9" r:id="rId1"/>
@@ -19,14 +19,7 @@
     <definedName name="vertex42_title" hidden="1">"Gantt Chart Template"</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Excel Sprint Project Tracker'!$C$3:$AN$28</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -1704,8 +1697,8 @@
   </sheetPr>
   <dimension ref="B1:BY51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2301,16 +2294,16 @@
       </c>
       <c r="F10" s="41">
         <f>IF(MAX(F11:F28)&gt;0,MAX(F11:F28),"")</f>
-        <v>43412</v>
+        <v>43426</v>
       </c>
       <c r="G10" s="52" t="str">
         <f>IF(OR(E10="",F10=""),"",NETWORKDAYS(E10,F10)&amp; " day(s)")</f>
-        <v>16 day(s)</v>
+        <v>26 day(s)</v>
       </c>
       <c r="H10" s="48"/>
       <c r="I10" s="53">
         <f>AVERAGE(I12:I27)</f>
-        <v>0.5</v>
+        <v>0.55833333333333335</v>
       </c>
       <c r="J10" s="26"/>
       <c r="K10" s="37"/>
@@ -2619,15 +2612,15 @@
       <c r="D16" s="32"/>
       <c r="E16" s="35">
         <f>IF(MIN(E17:E20)&gt;0,MIN(E17:E20),"")</f>
-        <v>43400</v>
+        <v>43410</v>
       </c>
       <c r="F16" s="35">
         <f>IF(MAX(F17:F20)&gt;0,MAX(F17:F20),"")</f>
-        <v>43412</v>
+        <v>43426</v>
       </c>
       <c r="G16" s="49" t="str">
         <f>IF(OR(E16="",F16=""),"",NETWORKDAYS(E16,F16)&amp; " day(s)")</f>
-        <v>9 day(s)</v>
+        <v>13 day(s)</v>
       </c>
       <c r="H16" s="49"/>
       <c r="I16" s="54"/>
@@ -2673,20 +2666,20 @@
         <v>20</v>
       </c>
       <c r="E17" s="12">
-        <v>43400</v>
+        <v>43410</v>
       </c>
       <c r="F17" s="12">
-        <v>43412</v>
+        <v>43415</v>
       </c>
       <c r="G17" s="50" t="str">
         <f>IF(OR(E17=0,F17=0),"",NETWORKDAYS(E17,F17)&amp; " day(s)")</f>
-        <v>9 day(s)</v>
+        <v>4 day(s)</v>
       </c>
       <c r="H17" s="51" t="s">
         <v>16</v>
       </c>
       <c r="I17" s="55">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="J17" s="28"/>
       <c r="K17" s="15"/>
@@ -2730,10 +2723,10 @@
         <v>19</v>
       </c>
       <c r="E18" s="12">
-        <v>43403</v>
+        <v>43413</v>
       </c>
       <c r="F18" s="12">
-        <v>43405</v>
+        <v>43417</v>
       </c>
       <c r="G18" s="50" t="str">
         <f>IF(OR(E18=0,F18=0),"",NETWORKDAYS(E18,F18)&amp; " day(s)")</f>
@@ -2787,14 +2780,14 @@
         <v>19</v>
       </c>
       <c r="E19" s="12">
-        <v>43401</v>
+        <v>43419</v>
       </c>
       <c r="F19" s="12">
-        <v>43410</v>
+        <v>43426</v>
       </c>
       <c r="G19" s="50" t="str">
         <f>IF(OR(E19=0,F19=0),"",NETWORKDAYS(E19,F19)&amp; " day(s)")</f>
-        <v>7 day(s)</v>
+        <v>6 day(s)</v>
       </c>
       <c r="H19" s="51" t="s">
         <v>18</v>

--- a/Gestion/Sprint Tracker.xlsx
+++ b/Gestion/Sprint Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1B99C714-1F8B-40F6-A255-1AC663AC76D2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{51338B12-EC3A-47CD-B8DE-A2A69D871AC1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Project Summary</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>Creation Nouvelle entrainement</t>
-  </si>
-  <si>
-    <t>statistiques</t>
   </si>
   <si>
     <t>Profile</t>
@@ -1137,9 +1134,6 @@
     <xf numFmtId="0" fontId="58" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="41" fillId="22" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -1147,6 +1141,9 @@
     <xf numFmtId="15" fontId="41" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="41" fillId="22" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="166" fontId="41" fillId="22" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1207,7 +1204,28 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="27" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1764,15 +1782,15 @@
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
       <c r="J3" s="9"/>
       <c r="K3" s="57"/>
       <c r="L3" s="58" t="s">
@@ -1812,13 +1830,13 @@
     </row>
     <row r="4" spans="2:41" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
       <c r="J4" s="11"/>
       <c r="K4" s="42"/>
       <c r="L4" s="42"/>
@@ -1862,54 +1880,54 @@
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="25"/>
-      <c r="K5" s="71">
+      <c r="K5" s="73">
         <f>CHOOSE(WEEKDAY(D6+(H6-1)*7),5,4,3,2,1,0,6)+D6+(H6-1)*7</f>
         <v>43392</v>
       </c>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71">
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73">
         <f>K5+7</f>
         <v>43399</v>
       </c>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71">
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73">
         <f>P5+7</f>
         <v>43406</v>
       </c>
-      <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="71"/>
-      <c r="Y5" s="71"/>
-      <c r="Z5" s="71">
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="73">
         <f>U5+7</f>
         <v>43413</v>
       </c>
-      <c r="AA5" s="71"/>
-      <c r="AB5" s="71"/>
-      <c r="AC5" s="71"/>
-      <c r="AD5" s="71"/>
-      <c r="AE5" s="71">
+      <c r="AA5" s="73"/>
+      <c r="AB5" s="73"/>
+      <c r="AC5" s="73"/>
+      <c r="AD5" s="73"/>
+      <c r="AE5" s="73">
         <f>Z5+7</f>
         <v>43420</v>
       </c>
-      <c r="AF5" s="71"/>
-      <c r="AG5" s="71"/>
-      <c r="AH5" s="71"/>
-      <c r="AI5" s="71"/>
-      <c r="AJ5" s="71">
+      <c r="AF5" s="73"/>
+      <c r="AG5" s="73"/>
+      <c r="AH5" s="73"/>
+      <c r="AI5" s="73"/>
+      <c r="AJ5" s="73">
         <f>AE5+7</f>
         <v>43427</v>
       </c>
-      <c r="AK5" s="71"/>
-      <c r="AL5" s="71"/>
-      <c r="AM5" s="71"/>
-      <c r="AN5" s="71"/>
+      <c r="AK5" s="73"/>
+      <c r="AL5" s="73"/>
+      <c r="AM5" s="73"/>
+      <c r="AN5" s="73"/>
       <c r="AO5" s="5"/>
     </row>
     <row r="6" spans="2:41" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1917,10 +1935,10 @@
       <c r="C6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="73">
+      <c r="D6" s="72">
         <v>43389</v>
       </c>
-      <c r="E6" s="73"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="75" t="s">
         <v>21</v>
       </c>
@@ -1931,35 +1949,35 @@
       <c r="I6" s="60"/>
       <c r="J6" s="34"/>
       <c r="K6" s="74"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="71"/>
-      <c r="AB6" s="71"/>
-      <c r="AC6" s="71"/>
-      <c r="AD6" s="71"/>
-      <c r="AE6" s="71"/>
-      <c r="AF6" s="71"/>
-      <c r="AG6" s="71"/>
-      <c r="AH6" s="71"/>
-      <c r="AI6" s="71"/>
-      <c r="AJ6" s="71"/>
-      <c r="AK6" s="71"/>
-      <c r="AL6" s="71"/>
-      <c r="AM6" s="71"/>
-      <c r="AN6" s="71"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="73"/>
+      <c r="AA6" s="73"/>
+      <c r="AB6" s="73"/>
+      <c r="AC6" s="73"/>
+      <c r="AD6" s="73"/>
+      <c r="AE6" s="73"/>
+      <c r="AF6" s="73"/>
+      <c r="AG6" s="73"/>
+      <c r="AH6" s="73"/>
+      <c r="AI6" s="73"/>
+      <c r="AJ6" s="73"/>
+      <c r="AK6" s="73"/>
+      <c r="AL6" s="73"/>
+      <c r="AM6" s="73"/>
+      <c r="AN6" s="73"/>
       <c r="AO6" s="5"/>
     </row>
     <row r="7" spans="2:41" ht="6.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1973,35 +1991,35 @@
       <c r="I7" s="22"/>
       <c r="J7" s="34"/>
       <c r="K7" s="74"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="71"/>
-      <c r="W7" s="71"/>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="71"/>
-      <c r="Z7" s="71"/>
-      <c r="AA7" s="71"/>
-      <c r="AB7" s="71"/>
-      <c r="AC7" s="71"/>
-      <c r="AD7" s="71"/>
-      <c r="AE7" s="71"/>
-      <c r="AF7" s="71"/>
-      <c r="AG7" s="71"/>
-      <c r="AH7" s="71"/>
-      <c r="AI7" s="71"/>
-      <c r="AJ7" s="71"/>
-      <c r="AK7" s="71"/>
-      <c r="AL7" s="71"/>
-      <c r="AM7" s="71"/>
-      <c r="AN7" s="71"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="73"/>
+      <c r="AC7" s="73"/>
+      <c r="AD7" s="73"/>
+      <c r="AE7" s="73"/>
+      <c r="AF7" s="73"/>
+      <c r="AG7" s="73"/>
+      <c r="AH7" s="73"/>
+      <c r="AI7" s="73"/>
+      <c r="AJ7" s="73"/>
+      <c r="AK7" s="73"/>
+      <c r="AL7" s="73"/>
+      <c r="AM7" s="73"/>
+      <c r="AN7" s="73"/>
       <c r="AO7" s="5"/>
     </row>
     <row r="8" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2294,16 +2312,16 @@
       </c>
       <c r="F10" s="41">
         <f>IF(MAX(F11:F28)&gt;0,MAX(F11:F28),"")</f>
-        <v>43426</v>
+        <v>43417</v>
       </c>
       <c r="G10" s="52" t="str">
         <f>IF(OR(E10="",F10=""),"",NETWORKDAYS(E10,F10)&amp; " day(s)")</f>
-        <v>26 day(s)</v>
+        <v>19 day(s)</v>
       </c>
       <c r="H10" s="48"/>
       <c r="I10" s="53">
         <f>AVERAGE(I12:I27)</f>
-        <v>0.55833333333333335</v>
+        <v>0.8</v>
       </c>
       <c r="J10" s="26"/>
       <c r="K10" s="37"/>
@@ -2616,11 +2634,11 @@
       </c>
       <c r="F16" s="35">
         <f>IF(MAX(F17:F20)&gt;0,MAX(F17:F20),"")</f>
-        <v>43426</v>
+        <v>43417</v>
       </c>
       <c r="G16" s="49" t="str">
         <f>IF(OR(E16="",F16=""),"",NETWORKDAYS(E16,F16)&amp; " day(s)")</f>
-        <v>13 day(s)</v>
+        <v>6 day(s)</v>
       </c>
       <c r="H16" s="49"/>
       <c r="I16" s="54"/>
@@ -2679,7 +2697,7 @@
         <v>16</v>
       </c>
       <c r="I17" s="55">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="J17" s="28"/>
       <c r="K17" s="15"/>
@@ -2717,7 +2735,7 @@
     <row r="18" spans="2:77" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>19</v>
@@ -2773,28 +2791,13 @@
     </row>
     <row r="19" spans="2:77" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
-      <c r="C19" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="12">
-        <v>43419</v>
-      </c>
-      <c r="F19" s="12">
-        <v>43426</v>
-      </c>
-      <c r="G19" s="50" t="str">
-        <f>IF(OR(E19=0,F19=0),"",NETWORKDAYS(E19,F19)&amp; " day(s)")</f>
-        <v>6 day(s)</v>
-      </c>
-      <c r="H19" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="55">
-        <v>0</v>
-      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="55"/>
       <c r="J19" s="28"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
@@ -4095,20 +4098,20 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="10">
+    <mergeCell ref="AJ5:AN7"/>
+    <mergeCell ref="P5:T7"/>
+    <mergeCell ref="U5:Y7"/>
+    <mergeCell ref="Z5:AD7"/>
+    <mergeCell ref="AE5:AI7"/>
     <mergeCell ref="C3:I4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="K5:O7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="C9:I9"/>
-    <mergeCell ref="AJ5:AN7"/>
-    <mergeCell ref="P5:T7"/>
-    <mergeCell ref="U5:Y7"/>
-    <mergeCell ref="Z5:AD7"/>
-    <mergeCell ref="AE5:AI7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K8:AN8">
-    <cfRule type="expression" dxfId="5" priority="132">
+    <cfRule type="expression" dxfId="8" priority="132">
       <formula>$K$8=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4127,21 +4130,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H28">
-    <cfRule type="cellIs" dxfId="4" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:AN28">
-    <cfRule type="expression" dxfId="1" priority="133">
+    <cfRule type="expression" dxfId="4" priority="133">
       <formula>AND($I11&gt;5%, $E11&lt;=K$8,ROUNDDOWN(NETWORKDAYS($E11,$F11)*$I11,0)+$E11+1&gt;=K$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="134">
+    <cfRule type="expression" dxfId="3" priority="134">
       <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=K$8,$F11&gt;=K$8)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Gestion/Sprint Tracker.xlsx
+++ b/Gestion/Sprint Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{51338B12-EC3A-47CD-B8DE-A2A69D871AC1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{54124133-3F57-46E8-A115-36644BC1ED5B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <definedName name="vertex42_copyright" hidden="1">"© 2006-2018 Vertex42 LLC"</definedName>
     <definedName name="vertex42_id" hidden="1">"gantt-chart_L2.xlsx"</definedName>
     <definedName name="vertex42_title" hidden="1">"Gantt Chart Template"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Excel Sprint Project Tracker'!$C$3:$AN$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Excel Sprint Project Tracker'!$C$3:$AN$26</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>Project Summary</t>
   </si>
@@ -110,6 +110,27 @@
   <si>
     <t>Profile</t>
   </si>
+  <si>
+    <t>6 day(s)</t>
+  </si>
+  <si>
+    <t>Conception onglet statistiques</t>
+  </si>
+  <si>
+    <t>code et design onglet Statistiques</t>
+  </si>
+  <si>
+    <t>9 day(s)</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>15 day(s)</t>
+  </si>
+  <si>
+    <t>32 Days</t>
+  </si>
 </sst>
 </file>
 
@@ -122,7 +143,7 @@
     <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="168" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="57" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -458,12 +479,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="1" tint="0.24994659260841701"/>
       <name val="Century Gothic"/>
@@ -488,12 +503,6 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Century Gothic"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -935,12 +944,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="55" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="168" fontId="54" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -1116,23 +1125,17 @@
     <xf numFmtId="0" fontId="52" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="56" fillId="23" borderId="0" xfId="45" applyFont="1" applyFill="1">
+    <xf numFmtId="168" fontId="55" fillId="23" borderId="0" xfId="45" applyFont="1" applyFill="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="23" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="166" fontId="41" fillId="22" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1141,9 +1144,6 @@
     <xf numFmtId="15" fontId="41" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="41" fillId="22" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="166" fontId="41" fillId="22" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1713,10 +1713,10 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BY51"/>
+  <dimension ref="B1:BY49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1782,15 +1782,15 @@
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
       <c r="J3" s="9"/>
       <c r="K3" s="57"/>
       <c r="L3" s="58" t="s">
@@ -1830,13 +1830,13 @@
     </row>
     <row r="4" spans="2:41" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
       <c r="J4" s="11"/>
       <c r="K4" s="42"/>
       <c r="L4" s="42"/>
@@ -1880,54 +1880,54 @@
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="25"/>
-      <c r="K5" s="73">
+      <c r="K5" s="68">
         <f>CHOOSE(WEEKDAY(D6+(H6-1)*7),5,4,3,2,1,0,6)+D6+(H6-1)*7</f>
         <v>43392</v>
       </c>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73">
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68">
         <f>K5+7</f>
         <v>43399</v>
       </c>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73">
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68">
         <f>P5+7</f>
         <v>43406</v>
       </c>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="73"/>
-      <c r="Y5" s="73"/>
-      <c r="Z5" s="73">
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="68">
         <f>U5+7</f>
         <v>43413</v>
       </c>
-      <c r="AA5" s="73"/>
-      <c r="AB5" s="73"/>
-      <c r="AC5" s="73"/>
-      <c r="AD5" s="73"/>
-      <c r="AE5" s="73">
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68"/>
+      <c r="AD5" s="68"/>
+      <c r="AE5" s="68">
         <f>Z5+7</f>
         <v>43420</v>
       </c>
-      <c r="AF5" s="73"/>
-      <c r="AG5" s="73"/>
-      <c r="AH5" s="73"/>
-      <c r="AI5" s="73"/>
-      <c r="AJ5" s="73">
+      <c r="AF5" s="68"/>
+      <c r="AG5" s="68"/>
+      <c r="AH5" s="68"/>
+      <c r="AI5" s="68"/>
+      <c r="AJ5" s="68">
         <f>AE5+7</f>
         <v>43427</v>
       </c>
-      <c r="AK5" s="73"/>
-      <c r="AL5" s="73"/>
-      <c r="AM5" s="73"/>
-      <c r="AN5" s="73"/>
+      <c r="AK5" s="68"/>
+      <c r="AL5" s="68"/>
+      <c r="AM5" s="68"/>
+      <c r="AN5" s="68"/>
       <c r="AO5" s="5"/>
     </row>
     <row r="6" spans="2:41" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1935,49 +1935,49 @@
       <c r="C6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="72">
+      <c r="D6" s="70">
         <v>43389</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="75" t="s">
+      <c r="E6" s="70"/>
+      <c r="F6" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="75"/>
+      <c r="G6" s="72"/>
       <c r="H6" s="47">
         <v>1</v>
       </c>
       <c r="I6" s="60"/>
       <c r="J6" s="34"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="73"/>
-      <c r="X6" s="73"/>
-      <c r="Y6" s="73"/>
-      <c r="Z6" s="73"/>
-      <c r="AA6" s="73"/>
-      <c r="AB6" s="73"/>
-      <c r="AC6" s="73"/>
-      <c r="AD6" s="73"/>
-      <c r="AE6" s="73"/>
-      <c r="AF6" s="73"/>
-      <c r="AG6" s="73"/>
-      <c r="AH6" s="73"/>
-      <c r="AI6" s="73"/>
-      <c r="AJ6" s="73"/>
-      <c r="AK6" s="73"/>
-      <c r="AL6" s="73"/>
-      <c r="AM6" s="73"/>
-      <c r="AN6" s="73"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="68"/>
+      <c r="AF6" s="68"/>
+      <c r="AG6" s="68"/>
+      <c r="AH6" s="68"/>
+      <c r="AI6" s="68"/>
+      <c r="AJ6" s="68"/>
+      <c r="AK6" s="68"/>
+      <c r="AL6" s="68"/>
+      <c r="AM6" s="68"/>
+      <c r="AN6" s="68"/>
       <c r="AO6" s="5"/>
     </row>
     <row r="7" spans="2:41" ht="6.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1990,36 +1990,36 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
       <c r="J7" s="34"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="73"/>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="73"/>
-      <c r="AA7" s="73"/>
-      <c r="AB7" s="73"/>
-      <c r="AC7" s="73"/>
-      <c r="AD7" s="73"/>
-      <c r="AE7" s="73"/>
-      <c r="AF7" s="73"/>
-      <c r="AG7" s="73"/>
-      <c r="AH7" s="73"/>
-      <c r="AI7" s="73"/>
-      <c r="AJ7" s="73"/>
-      <c r="AK7" s="73"/>
-      <c r="AL7" s="73"/>
-      <c r="AM7" s="73"/>
-      <c r="AN7" s="73"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="68"/>
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="68"/>
+      <c r="AD7" s="68"/>
+      <c r="AE7" s="68"/>
+      <c r="AF7" s="68"/>
+      <c r="AG7" s="68"/>
+      <c r="AH7" s="68"/>
+      <c r="AI7" s="68"/>
+      <c r="AJ7" s="68"/>
+      <c r="AK7" s="68"/>
+      <c r="AL7" s="68"/>
+      <c r="AM7" s="68"/>
+      <c r="AN7" s="68"/>
       <c r="AO7" s="5"/>
     </row>
     <row r="8" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2170,13 +2170,13 @@
     </row>
     <row r="9" spans="2:41" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="26"/>
       <c r="K9" s="29" t="str">
         <f>CHOOSE(WEEKDAY(K8,1),"S","M","T","W","T","F","S")</f>
@@ -2307,21 +2307,20 @@
       </c>
       <c r="D10" s="40"/>
       <c r="E10" s="41">
-        <f>IF(MIN(E11:E28)&gt;0,MIN(E11:E28),"")</f>
+        <f>IF(MIN(E11:E26)&gt;0,MIN(E11:E26),"")</f>
         <v>43391</v>
       </c>
       <c r="F10" s="41">
-        <f>IF(MAX(F11:F28)&gt;0,MAX(F11:F28),"")</f>
-        <v>43417</v>
-      </c>
-      <c r="G10" s="52" t="str">
-        <f>IF(OR(E10="",F10=""),"",NETWORKDAYS(E10,F10)&amp; " day(s)")</f>
-        <v>19 day(s)</v>
+        <f>IF(MAX(F11:F29)&gt;0,MAX(F11:F29),"")</f>
+        <v>43439</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>34</v>
       </c>
       <c r="H10" s="48"/>
       <c r="I10" s="53">
-        <f>AVERAGE(I12:I27)</f>
-        <v>0.8</v>
+        <f>AVERAGE(I12:I29)</f>
+        <v>0.91428571428571437</v>
       </c>
       <c r="J10" s="26"/>
       <c r="K10" s="37"/>
@@ -2580,7 +2579,7 @@
       <c r="AN14" s="15"/>
       <c r="AO14" s="5"/>
     </row>
-    <row r="15" spans="2:41" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:41" ht="12" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
@@ -2629,16 +2628,16 @@
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="35">
-        <f>IF(MIN(E17:E20)&gt;0,MIN(E17:E20),"")</f>
+        <f>IF(MIN(E17:E18)&gt;0,MIN(E17:E18),"")</f>
         <v>43410</v>
       </c>
       <c r="F16" s="35">
-        <f>IF(MAX(F17:F20)&gt;0,MAX(F17:F20),"")</f>
-        <v>43417</v>
+        <f>IF(MAX(F17:F18)&gt;0,MAX(F17:F18),"")</f>
+        <v>43424</v>
       </c>
       <c r="G16" s="49" t="str">
         <f>IF(OR(E16="",F16=""),"",NETWORKDAYS(E16,F16)&amp; " day(s)")</f>
-        <v>6 day(s)</v>
+        <v>11 day(s)</v>
       </c>
       <c r="H16" s="49"/>
       <c r="I16" s="54"/>
@@ -2687,11 +2686,11 @@
         <v>43410</v>
       </c>
       <c r="F17" s="12">
-        <v>43415</v>
+        <v>43424</v>
       </c>
       <c r="G17" s="50" t="str">
         <f>IF(OR(E17=0,F17=0),"",NETWORKDAYS(E17,F17)&amp; " day(s)")</f>
-        <v>4 day(s)</v>
+        <v>11 day(s)</v>
       </c>
       <c r="H17" s="51" t="s">
         <v>16</v>
@@ -2754,7 +2753,7 @@
         <v>17</v>
       </c>
       <c r="I18" s="55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="28"/>
       <c r="K18" s="15"/>
@@ -2876,7 +2875,7 @@
     <row r="21" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="12"/>
@@ -2919,9 +2918,7 @@
     </row>
     <row r="22" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
-      <c r="C22" s="13" t="s">
-        <v>12</v>
-      </c>
+      <c r="C22" s="13"/>
       <c r="D22" s="14"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
@@ -2964,7 +2961,7 @@
     <row r="23" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="12"/>
@@ -3007,7 +3004,9 @@
     </row>
     <row r="24" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
-      <c r="C24" s="13"/>
+      <c r="C24" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="D24" s="14"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -3050,7 +3049,7 @@
     <row r="25" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="12"/>
@@ -3093,12 +3092,10 @@
     </row>
     <row r="26" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
-      <c r="C26" s="13" t="s">
-        <v>12</v>
-      </c>
+      <c r="C26" s="13"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="50"/>
       <c r="H26" s="51"/>
       <c r="I26" s="55"/>
@@ -3135,59 +3132,79 @@
       <c r="AN26" s="15"/>
       <c r="AO26" s="5"/>
     </row>
-    <row r="27" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:77" ht="18" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
-      <c r="C27" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="15"/>
-      <c r="AF27" s="15"/>
-      <c r="AG27" s="15"/>
-      <c r="AH27" s="15"/>
-      <c r="AI27" s="15"/>
-      <c r="AJ27" s="15"/>
-      <c r="AK27" s="15"/>
-      <c r="AL27" s="15"/>
-      <c r="AM27" s="15"/>
-      <c r="AN27" s="15"/>
+      <c r="C27" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="35">
+        <v>43425</v>
+      </c>
+      <c r="F27" s="35">
+        <v>43439</v>
+      </c>
+      <c r="G27" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="49"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="36"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="36"/>
+      <c r="AG27" s="36"/>
+      <c r="AH27" s="36"/>
+      <c r="AI27" s="36"/>
+      <c r="AJ27" s="36"/>
+      <c r="AK27" s="36"/>
+      <c r="AL27" s="36"/>
+      <c r="AM27" s="36"/>
+      <c r="AN27" s="36"/>
       <c r="AO27" s="5"/>
     </row>
-    <row r="28" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:77" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="55"/>
+      <c r="C28" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="12">
+        <v>43425</v>
+      </c>
+      <c r="F28" s="12">
+        <v>43430</v>
+      </c>
+      <c r="G28" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="55">
+        <v>1</v>
+      </c>
       <c r="J28" s="28"/>
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
@@ -3221,38 +3238,63 @@
       <c r="AN28" s="15"/>
       <c r="AO28" s="5"/>
     </row>
-    <row r="29" spans="2:77" s="63" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B29" s="65"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="67"/>
-      <c r="P29" s="67"/>
-      <c r="Q29" s="67"/>
-      <c r="R29" s="67"/>
-      <c r="S29" s="67"/>
-      <c r="T29" s="67"/>
-      <c r="U29" s="67"/>
-      <c r="V29" s="67"/>
-      <c r="W29" s="67"/>
-      <c r="X29" s="67"/>
-      <c r="Y29" s="67"/>
-      <c r="Z29" s="67"/>
-      <c r="AA29" s="67"/>
-      <c r="AB29" s="67"/>
-      <c r="AC29" s="67"/>
-      <c r="BY29" s="64"/>
-    </row>
-    <row r="30" spans="2:77" s="69" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:77" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="12">
+        <v>43431</v>
+      </c>
+      <c r="F29" s="12">
+        <v>43439</v>
+      </c>
+      <c r="G29" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="55">
+        <v>0.4</v>
+      </c>
+      <c r="J29" s="28"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="15"/>
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="15"/>
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="15"/>
+      <c r="AH29" s="15"/>
+      <c r="AI29" s="15"/>
+      <c r="AJ29" s="15"/>
+      <c r="AK29" s="15"/>
+      <c r="AL29" s="15"/>
+      <c r="AM29" s="15"/>
+      <c r="AN29" s="15"/>
+      <c r="AO29" s="5"/>
+    </row>
+    <row r="30" spans="2:77" s="63" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B30" s="65"/>
       <c r="C30" s="66"/>
       <c r="D30" s="66"/>
@@ -3261,6 +3303,7 @@
       <c r="G30" s="67"/>
       <c r="H30" s="67"/>
       <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
       <c r="K30" s="67"/>
       <c r="L30" s="67"/>
       <c r="M30" s="67"/>
@@ -3280,28 +3323,9 @@
       <c r="AA30" s="67"/>
       <c r="AB30" s="67"/>
       <c r="AC30" s="67"/>
-      <c r="AD30" s="63"/>
-      <c r="AE30" s="63"/>
-      <c r="AF30" s="63"/>
-      <c r="AG30" s="63"/>
-      <c r="AH30" s="63"/>
-      <c r="AI30" s="63"/>
-      <c r="AJ30" s="63"/>
-      <c r="AK30" s="63"/>
-      <c r="AL30" s="63"/>
-      <c r="AM30" s="63"/>
-      <c r="AN30" s="63"/>
-      <c r="AO30" s="63"/>
-      <c r="AX30" s="70"/>
-      <c r="AY30" s="70"/>
-      <c r="AZ30" s="70"/>
-      <c r="BA30" s="70"/>
-      <c r="BB30" s="70"/>
-      <c r="BC30" s="70"/>
-      <c r="BD30" s="70"/>
-      <c r="BE30" s="70"/>
-    </row>
-    <row r="31" spans="2:77" s="63" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BY30" s="64"/>
+    </row>
+    <row r="31" spans="2:77" s="63" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B31" s="65"/>
       <c r="C31" s="66"/>
       <c r="D31" s="66"/>
@@ -3310,7 +3334,7 @@
       <c r="G31" s="67"/>
       <c r="H31" s="67"/>
       <c r="I31" s="67"/>
-      <c r="J31" s="68"/>
+      <c r="J31" s="67"/>
       <c r="K31" s="67"/>
       <c r="L31" s="67"/>
       <c r="M31" s="67"/>
@@ -3330,17 +3354,6 @@
       <c r="AA31" s="67"/>
       <c r="AB31" s="67"/>
       <c r="AC31" s="67"/>
-      <c r="AP31" s="68"/>
-      <c r="AQ31" s="68"/>
-      <c r="AR31" s="68"/>
-      <c r="AS31" s="68"/>
-      <c r="AT31" s="68"/>
-      <c r="AU31" s="68"/>
-      <c r="AV31" s="68"/>
-      <c r="AW31" s="68"/>
-      <c r="AX31" s="68"/>
-      <c r="AY31" s="68"/>
-      <c r="AZ31" s="68"/>
       <c r="BY31" s="64"/>
     </row>
     <row r="32" spans="2:77" s="63" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -3570,25 +3583,37 @@
       <c r="H39" s="67"/>
       <c r="I39" s="67"/>
       <c r="J39" s="67"/>
-      <c r="K39" s="67"/>
-      <c r="L39" s="67"/>
-      <c r="M39" s="67"/>
-      <c r="N39" s="67"/>
-      <c r="O39" s="67"/>
-      <c r="P39" s="67"/>
-      <c r="Q39" s="67"/>
-      <c r="R39" s="67"/>
-      <c r="S39" s="67"/>
-      <c r="T39" s="67"/>
-      <c r="U39" s="67"/>
-      <c r="V39" s="67"/>
-      <c r="W39" s="67"/>
-      <c r="X39" s="67"/>
-      <c r="Y39" s="67"/>
-      <c r="Z39" s="67"/>
-      <c r="AA39" s="67"/>
-      <c r="AB39" s="67"/>
-      <c r="AC39" s="67"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+      <c r="AH39" s="3"/>
+      <c r="AI39" s="3"/>
+      <c r="AJ39" s="3"/>
+      <c r="AK39" s="3"/>
+      <c r="AL39" s="3"/>
+      <c r="AM39" s="3"/>
+      <c r="AN39" s="3"/>
+      <c r="AO39" s="1"/>
       <c r="BY39" s="64"/>
     </row>
     <row r="40" spans="2:77" s="63" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -3601,25 +3626,37 @@
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="67"/>
-      <c r="M40" s="67"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="67"/>
-      <c r="P40" s="67"/>
-      <c r="Q40" s="67"/>
-      <c r="R40" s="67"/>
-      <c r="S40" s="67"/>
-      <c r="T40" s="67"/>
-      <c r="U40" s="67"/>
-      <c r="V40" s="67"/>
-      <c r="W40" s="67"/>
-      <c r="X40" s="67"/>
-      <c r="Y40" s="67"/>
-      <c r="Z40" s="67"/>
-      <c r="AA40" s="67"/>
-      <c r="AB40" s="67"/>
-      <c r="AC40" s="67"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3"/>
+      <c r="AI40" s="3"/>
+      <c r="AJ40" s="3"/>
+      <c r="AK40" s="3"/>
+      <c r="AL40" s="3"/>
+      <c r="AM40" s="3"/>
+      <c r="AN40" s="3"/>
+      <c r="AO40" s="1"/>
       <c r="BY40" s="64"/>
     </row>
     <row r="41" spans="2:77" s="63" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -3923,15 +3960,15 @@
       <c r="AO47" s="1"/>
       <c r="BY47" s="64"/>
     </row>
-    <row r="48" spans="2:77" s="63" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B48" s="65"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="67"/>
+    <row r="48" spans="2:77" s="63" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B48" s="1"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
       <c r="J48" s="67"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -3966,15 +4003,15 @@
       <c r="AO48" s="1"/>
       <c r="BY48" s="64"/>
     </row>
-    <row r="49" spans="2:77" s="63" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B49" s="65"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="67"/>
+    <row r="49" spans="2:77" s="63" customFormat="1" ht="50.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="1"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
       <c r="J49" s="67"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -4009,114 +4046,28 @@
       <c r="AO49" s="1"/>
       <c r="BY49" s="64"/>
     </row>
-    <row r="50" spans="2:77" s="63" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B50" s="1"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="67"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
-      <c r="AA50" s="3"/>
-      <c r="AB50" s="3"/>
-      <c r="AC50" s="3"/>
-      <c r="AD50" s="3"/>
-      <c r="AE50" s="3"/>
-      <c r="AF50" s="3"/>
-      <c r="AG50" s="3"/>
-      <c r="AH50" s="3"/>
-      <c r="AI50" s="3"/>
-      <c r="AJ50" s="3"/>
-      <c r="AK50" s="3"/>
-      <c r="AL50" s="3"/>
-      <c r="AM50" s="3"/>
-      <c r="AN50" s="3"/>
-      <c r="AO50" s="1"/>
-      <c r="BY50" s="64"/>
-    </row>
-    <row r="51" spans="2:77" s="63" customFormat="1" ht="50.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="1"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="67"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-      <c r="U51" s="3"/>
-      <c r="V51" s="3"/>
-      <c r="W51" s="3"/>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="3"/>
-      <c r="Z51" s="3"/>
-      <c r="AA51" s="3"/>
-      <c r="AB51" s="3"/>
-      <c r="AC51" s="3"/>
-      <c r="AD51" s="3"/>
-      <c r="AE51" s="3"/>
-      <c r="AF51" s="3"/>
-      <c r="AG51" s="3"/>
-      <c r="AH51" s="3"/>
-      <c r="AI51" s="3"/>
-      <c r="AJ51" s="3"/>
-      <c r="AK51" s="3"/>
-      <c r="AL51" s="3"/>
-      <c r="AM51" s="3"/>
-      <c r="AN51" s="3"/>
-      <c r="AO51" s="1"/>
-      <c r="BY51" s="64"/>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="10">
+    <mergeCell ref="C3:I4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="K5:O7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C9:I9"/>
     <mergeCell ref="AJ5:AN7"/>
     <mergeCell ref="P5:T7"/>
     <mergeCell ref="U5:Y7"/>
     <mergeCell ref="Z5:AD7"/>
     <mergeCell ref="AE5:AI7"/>
-    <mergeCell ref="C3:I4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="K5:O7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C9:I9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K8:AN8">
-    <cfRule type="expression" dxfId="8" priority="132">
+    <cfRule type="expression" dxfId="8" priority="144">
       <formula>$K$8=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I28">
-    <cfRule type="dataBar" priority="13">
+  <conditionalFormatting sqref="I10:I26">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4129,30 +4080,55 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H28">
-    <cfRule type="cellIs" dxfId="7" priority="9" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H12:H26">
+    <cfRule type="cellIs" dxfId="7" priority="21" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="22" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="23" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:AN28">
-    <cfRule type="expression" dxfId="4" priority="133">
+  <conditionalFormatting sqref="K11:AN29">
+    <cfRule type="expression" dxfId="4" priority="145">
       <formula>AND($I11&gt;5%, $E11&lt;=K$8,ROUNDDOWN(NETWORKDAYS($E11,$F11)*$I11,0)+$E11+1&gt;=K$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="134">
+    <cfRule type="expression" dxfId="3" priority="146">
       <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=K$8,$F11&gt;=K$8)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H27:H29">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Yellow"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"Green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Red"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:I29">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="9" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DE388503-D380-47D2-AEE0-6EF053FD2140}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D14 D17:D19 D21:D23 D25:D27" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D14 D17:D18 D23:D25 D19:D21 D28:D29" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Low, Medium,High"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12:H14 H17:H19 H21:H23 H25:H27" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12:H14 H17:H18 H23:H25 H19:H21 H28:H29" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Red, Yellow,Green"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4176,7 +4152,22 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I10:I28</xm:sqref>
+          <xm:sqref>I10:I26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DE388503-D380-47D2-AEE0-6EF053FD2140}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I27:I29</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
